--- a/Grades/Project.xlsx
+++ b/Grades/Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51011E2-11E2-431E-8E4E-3D1859AB04EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56A63D-D1C5-455E-A591-024F4C47CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21825" yWindow="1200" windowWidth="23745" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="5055" yWindow="270" windowWidth="23745" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F70C4CB5-59FC-4E4D-AE49-B470C211DA93}</author>
+    <author>tc={458E7C6B-BA02-4EB9-9AFB-7267E7404AD9}</author>
+    <author>tc={B5FD13DC-678D-412E-AA91-66D24C2FB034}</author>
+    <author>tc={207BEBF0-4B00-43A2-8299-AD5C3151E6C4}</author>
+    <author>tc={A7BCE1D0-2CAC-4BFC-A24D-41479BB77F34}</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{F70C4CB5-59FC-4E4D-AE49-B470C211DA93}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Clear and concise abstract</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{458E7C6B-BA02-4EB9-9AFB-7267E7404AD9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Introduction could be expanded with further details on the 10.101 funding model (in particular, details about how the model assigns funding)</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{B5FD13DC-678D-412E-AA91-66D24C2FB034}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The methods for creating models are not appropriate for research question</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{207BEBF0-4B00-43A2-8299-AD5C3151E6C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Modeling implemented correctly, although some interpretation missing and/or incorrect</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="4" shapeId="0" xr:uid="{A7BCE1D0-2CAC-4BFC-A24D-41479BB77F34}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Data and analysis presented do not answer research question</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>reed_id</t>
   </si>
@@ -258,6 +312,9 @@
   </si>
   <si>
     <t>Group 5</t>
+  </si>
+  <si>
+    <t>Appearance</t>
   </si>
 </sst>
 </file>
@@ -267,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,6 +344,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,10 +385,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -343,47 +403,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,6 +421,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jonathan Wells" id="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" userId="9c2249250b96a809" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:K18" totalsRowShown="0">
   <autoFilter ref="A1:K18" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
@@ -410,8 +439,8 @@
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
     <tableColumn id="4" xr3:uid="{C524DDEB-2F3A-3448-9786-159474E2DF2D}" name="Group"/>
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="Presentation" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{9C711AC8-5787-4B9B-BED7-32D1D807C96B}" name="Report" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{712BDCE5-7056-42A5-8A55-E2FA1A67C2D3}" name="Column1" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{9C711AC8-5787-4B9B-BED7-32D1D807C96B}" name="Report" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{712BDCE5-7056-42A5-8A55-E2FA1A67C2D3}" name="Column1" dataDxfId="1" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{CC13EEC9-CABF-4505-91A8-BF1D9DDD3078}" name="Column2"/>
     <tableColumn id="9" xr3:uid="{BEC4CEA0-4812-4DC8-AC38-72324E5811F7}" name="Column3"/>
     <tableColumn id="10" xr3:uid="{7DC7BB7E-0A10-487D-9C2D-8EF8B6D2AF80}" name="Column4"/>
@@ -716,12 +745,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B16" dT="2021-12-27T23:00:52.28" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{F70C4CB5-59FC-4E4D-AE49-B470C211DA93}">
+    <text>Clear and concise abstract</text>
+  </threadedComment>
+  <threadedComment ref="B17" dT="2021-12-27T23:02:08.92" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{458E7C6B-BA02-4EB9-9AFB-7267E7404AD9}">
+    <text>Introduction could be expanded with further details on the 10.101 funding model (in particular, details about how the model assigns funding)</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2021-12-27T23:07:04.47" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{B5FD13DC-678D-412E-AA91-66D24C2FB034}">
+    <text>The methods for creating models are not appropriate for research question</text>
+  </threadedComment>
+  <threadedComment ref="B20" dT="2021-12-27T23:14:55.58" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{207BEBF0-4B00-43A2-8299-AD5C3151E6C4}">
+    <text>Modeling implemented correctly, although some interpretation missing and/or incorrect</text>
+  </threadedComment>
+  <threadedComment ref="B21" dT="2021-12-27T23:09:06.83" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{A7BCE1D0-2CAC-4BFC-A24D-41479BB77F34}">
+    <text>Data and analysis presented do not answer research question</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -779,9 +828,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.85499999999999998</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -798,9 +849,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.85499999999999998</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,9 +870,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.85499999999999998</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -836,9 +891,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.85499999999999998</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -857,7 +914,7 @@
       <c r="E6" s="2">
         <v>0.93</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -876,7 +933,7 @@
       <c r="E7" s="2">
         <v>0.93</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -895,7 +952,7 @@
       <c r="E8" s="2">
         <v>0.93</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -914,7 +971,7 @@
       <c r="E9" s="2">
         <v>0.93</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -931,9 +988,9 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>0.91</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -950,9 +1007,9 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>0.91</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -969,9 +1026,9 @@
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>0.91</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,7 +1047,7 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,7 +1066,7 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1028,7 +1085,7 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1047,7 +1104,7 @@
       <c r="E16" s="2">
         <v>0.8</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,7 +1123,7 @@
       <c r="E17" s="2">
         <v>0.8</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,7 +1142,7 @@
       <c r="E18" s="2">
         <v>0.8</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,11 +1196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF97858-D3E6-4A5D-BD60-07AB48F639FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF97858-D3E6-4A5D-BD60-07AB48F639FB}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1221,7 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1209,7 +1266,7 @@
       </c>
       <c r="B7">
         <f>SUM(B3:B6)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <f>SUM(C3:C6)</f>
@@ -1219,7 +1276,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7/C7*C8</f>
-        <v>3.7333333333333334</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1234,6 +1291,9 @@
       <c r="A16" t="s">
         <v>59</v>
       </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
@@ -1242,14 +1302,20 @@
       <c r="A17" t="s">
         <v>60</v>
       </c>
+      <c r="B17">
+        <v>3.5</v>
+      </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
       <c r="C18">
         <v>10</v>
       </c>
@@ -1258,6 +1324,9 @@
       <c r="A19" t="s">
         <v>62</v>
       </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
       <c r="C19">
         <v>10</v>
       </c>
@@ -1266,6 +1335,9 @@
       <c r="A20" t="s">
         <v>63</v>
       </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
       <c r="C20">
         <v>15</v>
       </c>
@@ -1274,6 +1346,9 @@
       <c r="A21" t="s">
         <v>64</v>
       </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
       <c r="C21">
         <v>10</v>
       </c>
@@ -1282,6 +1357,9 @@
       <c r="A22" t="s">
         <v>65</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
       <c r="C22">
         <v>5</v>
       </c>
@@ -1290,6 +1368,9 @@
       <c r="A23" t="s">
         <v>66</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23">
         <v>5</v>
       </c>
@@ -1298,6 +1379,9 @@
       <c r="A25" t="s">
         <v>67</v>
       </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
       <c r="C25">
         <v>20</v>
       </c>
@@ -1306,14 +1390,32 @@
       <c r="A26" t="s">
         <v>68</v>
       </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
       <c r="C26">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
+      <c r="B29">
+        <f>SUM(B16:B27)</f>
+        <v>85.5</v>
+      </c>
       <c r="C29">
         <f>SUM(C16:C27)</f>
         <v>100</v>
@@ -1321,6 +1423,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1329,7 +1432,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1532,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,9 +1599,21 @@
         <v>10</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B16:B27)</f>
+        <v>0</v>
       </c>
       <c r="C29">
         <f>SUM(C16:C27)</f>
@@ -1515,7 +1630,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1730,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,6 +1795,14 @@
       </c>
       <c r="C26">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,7 +1824,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C29"/>
+      <selection activeCell="A16" sqref="A16:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1924,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,6 +1989,14 @@
       </c>
       <c r="C26">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +2018,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1988,7 +2119,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2053,6 +2184,14 @@
       </c>
       <c r="C26">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/Grades/Project.xlsx
+++ b/Grades/Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56A63D-D1C5-455E-A591-024F4C47CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F54AFB-B42D-4F11-B37C-C583BAB4087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="270" windowWidth="23745" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
@@ -92,6 +92,78 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={057BE4C7-D10E-4103-9D56-57CD921ECEBF}</author>
+    <author>tc={C18074BC-8A8D-4E33-AE60-8C233E926ED2}</author>
+    <author>tc={FAC3E211-398C-4714-90DB-C9F4CAEE9982}</author>
+    <author>tc={5191CB95-AA85-424B-8224-C35B0ADEFA02}</author>
+    <author>tc={63E7A437-938C-4574-BFF1-F3F4CFF0D60D}</author>
+    <author>tc={06EF4C5E-C066-41F4-85A8-70D4F9B3A048}</author>
+    <author>tc={A5DB622A-95CF-49E4-A53F-39329A4FD706}</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{057BE4C7-D10E-4103-9D56-57CD921ECEBF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Clear and concise abstract</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{C18074BC-8A8D-4E33-AE60-8C233E926ED2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Strong introduction overall, but language could be more precise</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{FAC3E211-398C-4714-90DB-C9F4CAEE9982}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Impressive data wrangling; some further discussion on KNN imputation would be helpful</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="3" shapeId="0" xr:uid="{5191CB95-AA85-424B-8224-C35B0ADEFA02}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Great EDA overall. However, it would be helpful to have statistics on the overall marriage rates for survey respondents (along with number of NAs, if available)</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="4" shapeId="0" xr:uid="{63E7A437-938C-4574-BFF1-F3F4CFF0D60D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    It would be helpful to report further model summary information, especially for logistic model, and perhaps pruned tree; LDA results seem to be missing; including glossary of variable labels would improve readability</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="5" shapeId="0" xr:uid="{06EF4C5E-C066-41F4-85A8-70D4F9B3A048}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Results section somewhat shallow compared to depth of rest of report. Further discussion of the specifics of each model outcome, as well as comparison between models, would improve report</t>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="6" shapeId="0" xr:uid="{A5DB622A-95CF-49E4-A53F-39329A4FD706}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some small typos and grammatical errors / ambiguities.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
@@ -387,6 +459,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -403,9 +478,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
   </dxfs>
@@ -439,8 +511,8 @@
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
     <tableColumn id="4" xr3:uid="{C524DDEB-2F3A-3448-9786-159474E2DF2D}" name="Group"/>
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="Presentation" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{9C711AC8-5787-4B9B-BED7-32D1D807C96B}" name="Report" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{712BDCE5-7056-42A5-8A55-E2FA1A67C2D3}" name="Column1" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{9C711AC8-5787-4B9B-BED7-32D1D807C96B}" name="Report" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{712BDCE5-7056-42A5-8A55-E2FA1A67C2D3}" name="Column1" dataDxfId="0" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{CC13EEC9-CABF-4505-91A8-BF1D9DDD3078}" name="Column2"/>
     <tableColumn id="9" xr3:uid="{BEC4CEA0-4812-4DC8-AC38-72324E5811F7}" name="Column3"/>
     <tableColumn id="10" xr3:uid="{7DC7BB7E-0A10-487D-9C2D-8EF8B6D2AF80}" name="Column4"/>
@@ -765,12 +837,38 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B16" dT="2021-12-27T23:53:45.45" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{057BE4C7-D10E-4103-9D56-57CD921ECEBF}">
+    <text>Clear and concise abstract</text>
+  </threadedComment>
+  <threadedComment ref="B17" dT="2021-12-27T23:55:10.69" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{C18074BC-8A8D-4E33-AE60-8C233E926ED2}">
+    <text>Strong introduction overall, but language could be more precise</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2021-12-28T00:03:20.52" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{FAC3E211-398C-4714-90DB-C9F4CAEE9982}">
+    <text>Impressive data wrangling; some further discussion on KNN imputation would be helpful</text>
+  </threadedComment>
+  <threadedComment ref="B19" dT="2021-12-28T00:09:49.33" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{5191CB95-AA85-424B-8224-C35B0ADEFA02}">
+    <text>Great EDA overall. However, it would be helpful to have statistics on the overall marriage rates for survey respondents (along with number of NAs, if available)</text>
+  </threadedComment>
+  <threadedComment ref="B20" dT="2021-12-28T00:28:26.76" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{63E7A437-938C-4574-BFF1-F3F4CFF0D60D}">
+    <text>It would be helpful to report further model summary information, especially for logistic model, and perhaps pruned tree; LDA results seem to be missing; including glossary of variable labels would improve readability</text>
+  </threadedComment>
+  <threadedComment ref="B21" dT="2021-12-28T00:36:48.18" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{06EF4C5E-C066-41F4-85A8-70D4F9B3A048}">
+    <text>Results section somewhat shallow compared to depth of rest of report. Further discussion of the specifics of each model outcome, as well as comparison between models, would improve report</text>
+  </threadedComment>
+  <threadedComment ref="B25" dT="2021-12-28T00:00:32.93" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{A5DB622A-95CF-49E4-A53F-39329A4FD706}">
+    <text>Some small typos and grammatical errors / ambiguities.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -914,7 +1012,9 @@
       <c r="E6" s="2">
         <v>0.93</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>0.92</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -933,7 +1033,9 @@
       <c r="E7" s="2">
         <v>0.93</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>0.92</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -952,7 +1054,9 @@
       <c r="E8" s="2">
         <v>0.93</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>0.92</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -971,7 +1075,9 @@
       <c r="E9" s="2">
         <v>0.93</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>0.92</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1200,7 +1306,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1428,11 +1534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06999F91-6780-4BE4-86FA-CEEB9E8050AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06999F91-6780-4BE4-86FA-CEEB9E8050AF}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1523,6 +1629,9 @@
       <c r="A16" t="s">
         <v>59</v>
       </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
@@ -1531,6 +1640,9 @@
       <c r="A17" t="s">
         <v>60</v>
       </c>
+      <c r="B17">
+        <v>4.5</v>
+      </c>
       <c r="C17">
         <v>5</v>
       </c>
@@ -1539,6 +1651,9 @@
       <c r="A18" t="s">
         <v>61</v>
       </c>
+      <c r="B18">
+        <v>9.5</v>
+      </c>
       <c r="C18">
         <v>10</v>
       </c>
@@ -1547,6 +1662,9 @@
       <c r="A19" t="s">
         <v>62</v>
       </c>
+      <c r="B19">
+        <v>9.5</v>
+      </c>
       <c r="C19">
         <v>10</v>
       </c>
@@ -1555,6 +1673,9 @@
       <c r="A20" t="s">
         <v>63</v>
       </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
       <c r="C20">
         <v>15</v>
       </c>
@@ -1563,6 +1684,9 @@
       <c r="A21" t="s">
         <v>64</v>
       </c>
+      <c r="B21">
+        <v>8.5</v>
+      </c>
       <c r="C21">
         <v>10</v>
       </c>
@@ -1571,6 +1695,9 @@
       <c r="A22" t="s">
         <v>65</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
       <c r="C22">
         <v>5</v>
       </c>
@@ -1579,6 +1706,9 @@
       <c r="A23" t="s">
         <v>66</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23">
         <v>5</v>
       </c>
@@ -1587,6 +1717,9 @@
       <c r="A25" t="s">
         <v>67</v>
       </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
       <c r="C25">
         <v>20</v>
       </c>
@@ -1595,6 +1728,9 @@
       <c r="A26" t="s">
         <v>68</v>
       </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
       <c r="C26">
         <v>10</v>
       </c>
@@ -1603,6 +1739,9 @@
       <c r="A27" t="s">
         <v>73</v>
       </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
       <c r="C27">
         <v>5</v>
       </c>
@@ -1613,7 +1752,7 @@
       </c>
       <c r="B29">
         <f>SUM(B16:B27)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <f>SUM(C16:C27)</f>
@@ -1622,6 +1761,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Grades/Project.xlsx
+++ b/Grades/Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F54AFB-B42D-4F11-B37C-C583BAB4087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652D2EA-1CF4-4FF1-B786-90C622336193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="270" windowWidth="23745" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
@@ -69,7 +69,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    The methods for creating models are not appropriate for research question</t>
+    Great presentation of data</t>
       </text>
     </comment>
     <comment ref="B20" authorId="3" shapeId="0" xr:uid="{207BEBF0-4B00-43A2-8299-AD5C3151E6C4}">
@@ -77,7 +77,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Modeling implemented correctly, although some interpretation missing and/or incorrect</t>
+    Modeling implemented correctly; however, the methods for creating models are not appropriate for research question, and some interpretation of results are misleading or incorrect</t>
       </text>
     </comment>
     <comment ref="B21" authorId="4" shapeId="0" xr:uid="{A7BCE1D0-2CAC-4BFC-A24D-41479BB77F34}">
@@ -149,7 +149,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Results section somewhat shallow compared to depth of rest of report. Further discussion of the specifics of each model outcome, as well as comparison between models, would improve report</t>
+    Results section somewhat shallow compared to depth of rest of report. Further discussion of the specifics of each model outcome, as well as comparison between models, would be helpful</t>
       </text>
     </comment>
     <comment ref="B25" authorId="6" shapeId="0" xr:uid="{A5DB622A-95CF-49E4-A53F-39329A4FD706}">
@@ -158,6 +158,202 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Some small typos and grammatical errors / ambiguities.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={25458872-C0B4-4AC9-B939-0B73F2453F1B}</author>
+    <author>tc={A65CB9D0-1EA8-49E7-AD1D-8BA8FC66EA47}</author>
+    <author>tc={9661E41A-17B1-4998-9185-E52665EC1C74}</author>
+    <author>tc={A9C67D42-DB0A-4FF6-9306-7AD9DD338ECA}</author>
+    <author>tc={1C71628F-2C65-462A-81C5-A3B39C1F3D34}</author>
+  </authors>
+  <commentList>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{25458872-C0B4-4AC9-B939-0B73F2453F1B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some further information about physiological causes of stroke, as well as impact of strokes, could be helpful</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{A65CB9D0-1EA8-49E7-AD1D-8BA8FC66EA47}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Missing significant discussion of data set source (and especially concerns about authenticity / accuracy)
+Indicate how many obs were dropped; 
+Discuss why only categorical variables were retained</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{9661E41A-17B1-4998-9185-E52665EC1C74}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In addition to graphs, provide narrative discussing and interpreting data</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{A9C67D42-DB0A-4FF6-9306-7AD9DD338ECA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Include parameters for models, or discussion of how parameters were automatically determined.
+Since accuracy is not the overall goal for model, it would be helpful to include metrics assessing sensitivity / specificity (either numerics or ROC curves)</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="4" shapeId="0" xr:uid="{1C71628F-2C65-462A-81C5-A3B39C1F3D34}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Further discussion of the specifics of each model outcome, as well as comparison between models, would be helpful</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={78EBDA8C-209C-45F6-BAEE-6F68D3527616}</author>
+    <author>tc={24B57964-121A-4712-AAB1-D56BA9628C7C}</author>
+    <author>tc={A934D606-1734-4D6B-BA69-ED246110F12E}</author>
+  </authors>
+  <commentList>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{78EBDA8C-209C-45F6-BAEE-6F68D3527616}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Excellent introduction establishing the need for statistical analysis, as well as the scope and context of the problem</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{24B57964-121A-4712-AAB1-D56BA9628C7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Clear and concise explanation of data and wrangling
+Include some discussion for why particular response was chosen</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="2" shapeId="0" xr:uid="{A934D606-1734-4D6B-BA69-ED246110F12E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Given large number of data points, as well as presence of several outliers, subsetting data for visualization may improve interpretability</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2E781E23-D05E-4CE8-BC7D-FCAFF7ED02F6}</author>
+    <author>tc={2F43039B-72B3-44E4-98E0-4F7E2F80B147}</author>
+    <author>tc={C95CB7EE-8369-4D79-BEC4-9B0ECDA4928D}</author>
+    <author>tc={6416CE3B-BFE6-4788-9C73-0E58472871B9}</author>
+    <author>tc={960972D3-21A0-4035-B260-7B1F34AC9E43}</author>
+    <author>tc={0EC1BEEB-BA19-410B-819F-6B3ED050422B}</author>
+    <author>tc={9EDF1787-45D5-407D-B055-A9216A0BB3B9}</author>
+    <author>tc={C8A58E72-A593-422B-A5E2-211FFD166DFA}</author>
+    <author>tc={C0475280-69F6-4A99-B9A8-F3C505C067BD}</author>
+    <author>tc={55B27A99-4833-4449-9D87-8946F1C21066}</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{2E781E23-D05E-4CE8-BC7D-FCAFF7ED02F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Abstract should include conclusion of study</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{2F43039B-72B3-44E4-98E0-4F7E2F80B147}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Include further discussion of existing theories and models, as well as some discussion of predictors used for your study</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{C95CB7EE-8369-4D79-BEC4-9B0ECDA4928D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Include discussion of the sampling method and limitations for IMDb set; what movies are present in the data? Is the data set representative of the source?
+Further discussion of variables present</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="3" shapeId="0" xr:uid="{6416CE3B-BFE6-4788-9C73-0E58472871B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Discuss before / after results of data processing. Explain why individual processing steps were implemented
+Year seems like it could be a significant confounding variable. How do responses vary with year? What is the distribution of year itself?</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="4" shapeId="0" xr:uid="{960972D3-21A0-4035-B260-7B1F34AC9E43}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Since Oscar variable it categorical, accuracy rather than rMSE is appropriate metric; discrepancy between test and training error for oscars suggests something is amiss (especially since a reasonable prediction for an oscar is either a 0 or a 1); it is more likely this is due to an error in model building than due to overfitting
+Include some discussion of individual models</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="5" shapeId="0" xr:uid="{0EC1BEEB-BA19-410B-819F-6B3ED050422B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Include discussion of the outcomes of the model (not just the limitations of the study)</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="6" shapeId="0" xr:uid="{9EDF1787-45D5-407D-B055-A9216A0BB3B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    References not formatted appropriately</t>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="7" shapeId="0" xr:uid="{C8A58E72-A593-422B-A5E2-211FFD166DFA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Significant number of grammatical mistakes; inconsistent writing style</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="8" shapeId="0" xr:uid="{C0475280-69F6-4A99-B9A8-F3C505C067BD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Significant overplotting in scatterplots; text on avg_vote histogram ambiguous</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="9" shapeId="0" xr:uid="{55B27A99-4833-4449-9D87-8946F1C21066}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Document lacks polish</t>
       </text>
     </comment>
   </commentList>
@@ -165,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
   <si>
     <t>reed_id</t>
   </si>
@@ -311,21 +507,6 @@
     <t>Presentation</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -335,9 +516,6 @@
     <t>Analysis</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
     <t>Group 1</t>
   </si>
   <si>
@@ -387,6 +565,12 @@
   </si>
   <si>
     <t>Appearance</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Project_Grade</t>
   </si>
 </sst>
 </file>
@@ -396,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,12 +600,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,23 +678,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:G18" totalsRowShown="0">
+  <autoFilter ref="A1:G18" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="D1:D18"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
     <tableColumn id="2" xr3:uid="{7146B570-825A-7D4C-890F-90E736404710}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
     <tableColumn id="4" xr3:uid="{C524DDEB-2F3A-3448-9786-159474E2DF2D}" name="Group"/>
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="Presentation" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{9C711AC8-5787-4B9B-BED7-32D1D807C96B}" name="Report" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{712BDCE5-7056-42A5-8A55-E2FA1A67C2D3}" name="Column1" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{CC13EEC9-CABF-4505-91A8-BF1D9DDD3078}" name="Column2"/>
-    <tableColumn id="9" xr3:uid="{BEC4CEA0-4812-4DC8-AC38-72324E5811F7}" name="Column3"/>
-    <tableColumn id="10" xr3:uid="{7DC7BB7E-0A10-487D-9C2D-8EF8B6D2AF80}" name="Column4"/>
-    <tableColumn id="11" xr3:uid="{98B12ADF-D418-498C-AA3B-FC72D4DD210B}" name="Column5"/>
+    <tableColumn id="8" xr3:uid="{712BDCE5-7056-42A5-8A55-E2FA1A67C2D3}" name="Project_Grade" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -826,10 +1002,10 @@
     <text>Introduction could be expanded with further details on the 10.101 funding model (in particular, details about how the model assigns funding)</text>
   </threadedComment>
   <threadedComment ref="B18" dT="2021-12-27T23:07:04.47" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{B5FD13DC-678D-412E-AA91-66D24C2FB034}">
-    <text>The methods for creating models are not appropriate for research question</text>
+    <text>Great presentation of data</text>
   </threadedComment>
   <threadedComment ref="B20" dT="2021-12-27T23:14:55.58" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{207BEBF0-4B00-43A2-8299-AD5C3151E6C4}">
-    <text>Modeling implemented correctly, although some interpretation missing and/or incorrect</text>
+    <text>Modeling implemented correctly; however, the methods for creating models are not appropriate for research question, and some interpretation of results are misleading or incorrect</text>
   </threadedComment>
   <threadedComment ref="B21" dT="2021-12-27T23:09:06.83" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{A7BCE1D0-2CAC-4BFC-A24D-41479BB77F34}">
     <text>Data and analysis presented do not answer research question</text>
@@ -855,20 +1031,96 @@
     <text>It would be helpful to report further model summary information, especially for logistic model, and perhaps pruned tree; LDA results seem to be missing; including glossary of variable labels would improve readability</text>
   </threadedComment>
   <threadedComment ref="B21" dT="2021-12-28T00:36:48.18" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{06EF4C5E-C066-41F4-85A8-70D4F9B3A048}">
-    <text>Results section somewhat shallow compared to depth of rest of report. Further discussion of the specifics of each model outcome, as well as comparison between models, would improve report</text>
+    <text>Results section somewhat shallow compared to depth of rest of report. Further discussion of the specifics of each model outcome, as well as comparison between models, would be helpful</text>
   </threadedComment>
   <threadedComment ref="B25" dT="2021-12-28T00:00:32.93" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{A5DB622A-95CF-49E4-A53F-39329A4FD706}">
     <text>Some small typos and grammatical errors / ambiguities.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B17" dT="2021-12-28T00:43:06.21" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{25458872-C0B4-4AC9-B939-0B73F2453F1B}">
+    <text>Some further information about physiological causes of stroke, as well as impact of strokes, could be helpful</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2021-12-28T00:47:34.36" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{A65CB9D0-1EA8-49E7-AD1D-8BA8FC66EA47}">
+    <text>Missing significant discussion of data set source (and especially concerns about authenticity / accuracy)
+Indicate how many obs were dropped; 
+Discuss why only categorical variables were retained</text>
+  </threadedComment>
+  <threadedComment ref="B19" dT="2021-12-28T00:58:07.77" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{9661E41A-17B1-4998-9185-E52665EC1C74}">
+    <text>In addition to graphs, provide narrative discussing and interpreting data</text>
+  </threadedComment>
+  <threadedComment ref="B20" dT="2021-12-28T01:00:46.93" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{A9C67D42-DB0A-4FF6-9306-7AD9DD338ECA}">
+    <text>Include parameters for models, or discussion of how parameters were automatically determined.
+Since accuracy is not the overall goal for model, it would be helpful to include metrics assessing sensitivity / specificity (either numerics or ROC curves)</text>
+  </threadedComment>
+  <threadedComment ref="B21" dT="2021-12-28T01:08:49.56" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{1C71628F-2C65-462A-81C5-A3B39C1F3D34}">
+    <text>Further discussion of the specifics of each model outcome, as well as comparison between models, would be helpful</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B17" dT="2021-12-28T01:13:46.65" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{78EBDA8C-209C-45F6-BAEE-6F68D3527616}">
+    <text>Excellent introduction establishing the need for statistical analysis, as well as the scope and context of the problem</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2021-12-28T01:15:20.67" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{24B57964-121A-4712-AAB1-D56BA9628C7C}">
+    <text>Clear and concise explanation of data and wrangling
+Include some discussion for why particular response was chosen</text>
+  </threadedComment>
+  <threadedComment ref="B26" dT="2021-12-28T01:28:44.03" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{A934D606-1734-4D6B-BA69-ED246110F12E}">
+    <text>Given large number of data points, as well as presence of several outliers, subsetting data for visualization may improve interpretability</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B16" dT="2021-12-28T01:42:58.87" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{2E781E23-D05E-4CE8-BC7D-FCAFF7ED02F6}">
+    <text>Abstract should include conclusion of study</text>
+  </threadedComment>
+  <threadedComment ref="B17" dT="2021-12-28T01:45:30.04" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{2F43039B-72B3-44E4-98E0-4F7E2F80B147}">
+    <text>Include further discussion of existing theories and models, as well as some discussion of predictors used for your study</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2021-12-28T01:47:42.60" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{C95CB7EE-8369-4D79-BEC4-9B0ECDA4928D}">
+    <text>Include discussion of the sampling method and limitations for IMDb set; what movies are present in the data? Is the data set representative of the source?
+Further discussion of variables present</text>
+  </threadedComment>
+  <threadedComment ref="B19" dT="2021-12-28T01:49:34.22" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{6416CE3B-BFE6-4788-9C73-0E58472871B9}">
+    <text>Discuss before / after results of data processing. Explain why individual processing steps were implemented
+Year seems like it could be a significant confounding variable. How do responses vary with year? What is the distribution of year itself?</text>
+  </threadedComment>
+  <threadedComment ref="B20" dT="2021-12-28T02:01:50.98" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{960972D3-21A0-4035-B260-7B1F34AC9E43}">
+    <text>Since Oscar variable it categorical, accuracy rather than rMSE is appropriate metric; discrepancy between test and training error for oscars suggests something is amiss (especially since a reasonable prediction for an oscar is either a 0 or a 1); it is more likely this is due to an error in model building than due to overfitting
+Include some discussion of individual models</text>
+  </threadedComment>
+  <threadedComment ref="B21" dT="2021-12-28T02:08:41.83" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{0EC1BEEB-BA19-410B-819F-6B3ED050422B}">
+    <text>Include discussion of the outcomes of the model (not just the limitations of the study)</text>
+  </threadedComment>
+  <threadedComment ref="B23" dT="2021-12-28T01:41:20.98" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{9EDF1787-45D5-407D-B055-A9216A0BB3B9}">
+    <text>References not formatted appropriately</text>
+  </threadedComment>
+  <threadedComment ref="B25" dT="2021-12-28T02:07:30.94" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{C8A58E72-A593-422B-A5E2-211FFD166DFA}">
+    <text>Significant number of grammatical mistakes; inconsistent writing style</text>
+  </threadedComment>
+  <threadedComment ref="B26" dT="2021-12-28T01:52:38.37" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{C0475280-69F6-4A99-B9A8-F3C505C067BD}">
+    <text>Significant overplotting in scatterplots; text on avg_vote histogram ambiguous</text>
+  </threadedComment>
+  <threadedComment ref="B27" dT="2021-12-28T02:07:05.10" personId="{CCAFC33E-0A69-4D75-8001-602F13D859D8}" id="{55B27A99-4833-4449-9D87-8946F1C21066}">
+    <text>Document lacks polish</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +1129,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,22 +1149,10 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20008352</v>
       </c>
@@ -926,14 +1166,17 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F2" s="3">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+      <c r="G2" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.87666666666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20010417</v>
       </c>
@@ -947,14 +1190,17 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F3" s="3">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.87666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -968,14 +1214,17 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F4" s="3">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.87666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20013614</v>
       </c>
@@ -989,14 +1238,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F5" s="3">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.87666666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20009766</v>
       </c>
@@ -1010,14 +1262,17 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F6" s="3">
         <v>0.92</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.92000000000000015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20005442</v>
       </c>
@@ -1031,14 +1286,17 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F7" s="3">
         <v>0.92</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.92000000000000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1052,14 +1310,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F8" s="3">
         <v>0.92</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.92000000000000015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20010981</v>
       </c>
@@ -1073,14 +1334,17 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F9" s="3">
         <v>0.92</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.92000000000000015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1094,12 +1358,17 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.8899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1113,12 +1382,17 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.8899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1132,12 +1406,17 @@
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.8899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20016821</v>
       </c>
@@ -1153,10 +1432,15 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.9933333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1172,10 +1456,15 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.9933333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1191,10 +1480,15 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.9933333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20007907</v>
       </c>
@@ -1208,10 +1502,15 @@
         <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.72666666666666657</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1227,10 +1526,15 @@
         <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.72666666666666657</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1246,10 +1550,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Table2[[#This Row],[Presentation]]/3+2*Table2[[#This Row],[Report]]/3</f>
+        <v>0.72666666666666657</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
@@ -1306,7 +1615,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1625,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -1324,7 +1633,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1335,7 +1644,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1346,7 +1655,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1355,34 +1664,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <f>SUM(B3:B6)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <f>SUM(C3:C6)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
       <c r="B8">
         <f>B7/C7*C8</f>
-        <v>3.4666666666666668</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1395,7 +1696,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1406,7 +1707,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>3.5</v>
@@ -1417,10 +1718,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1428,7 +1729,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1439,10 +1740,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1450,7 +1751,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1461,7 +1762,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1472,7 +1773,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1483,7 +1784,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -1494,7 +1795,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -1505,7 +1806,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1516,11 +1817,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <f>SUM(B16:B27)</f>
-        <v>85.5</v>
+        <v>87.5</v>
       </c>
       <c r="C29">
         <f>SUM(C16:C27)</f>
@@ -1537,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06999F91-6780-4BE4-86FA-CEEB9E8050AF}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -1556,7 +1857,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1567,7 +1868,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1578,7 +1879,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>3.5</v>
@@ -1587,34 +1888,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <f>SUM(B3:B6)</f>
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="C7">
         <f>SUM(C3:C6)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
       <c r="B8">
         <f>B7/C7*C8</f>
-        <v>3.8666666666666667</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1627,7 +1920,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1638,7 +1931,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>4.5</v>
@@ -1649,7 +1942,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>9.5</v>
@@ -1660,7 +1953,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>9.5</v>
@@ -1671,7 +1964,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -1682,7 +1975,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>8.5</v>
@@ -1693,7 +1986,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1704,7 +1997,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1715,7 +2008,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>18</v>
@@ -1726,7 +2019,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -1737,7 +2030,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1748,7 +2041,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <f>SUM(B16:B27)</f>
@@ -1766,11 +2059,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DA8F79-884B-4CAD-9BB6-E35CC4E42E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DA8F79-884B-4CAD-9BB6-E35CC4E42E42}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1780,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -1788,7 +2081,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>3.5</v>
@@ -1799,7 +2092,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1810,7 +2103,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1819,34 +2112,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <f>SUM(B3:B6)</f>
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="C7">
         <f>SUM(C3:C6)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
       <c r="B8">
         <f>B7/C7*C8</f>
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1859,7 +2144,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1867,7 +2155,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1875,7 +2166,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1883,7 +2177,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1891,7 +2188,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1899,7 +2199,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>8.5</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1907,7 +2210,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1915,7 +2221,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1923,7 +2232,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -1931,7 +2243,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1939,7 +2254,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1947,7 +2265,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B16:B27)</f>
+        <v>88.5</v>
       </c>
       <c r="C29">
         <f>SUM(C16:C27)</f>
@@ -1956,15 +2278,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D04CFB1-A5DB-42F3-AF86-7FDCBE37BF23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D04CFB1-A5DB-42F3-AF86-7FDCBE37BF23}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1974,7 +2297,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -1982,7 +2305,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1993,7 +2316,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2004,40 +2327,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <f>SUM(B3:B6)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <f>SUM(C3:C6)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
       <c r="B8">
         <f>B7/C7*C8</f>
         <v>4</v>
@@ -2053,7 +2368,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -2061,7 +2379,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2069,7 +2390,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>9.5</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -2077,7 +2401,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2085,7 +2412,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -2093,7 +2423,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -2101,7 +2434,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2109,7 +2445,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -2117,7 +2456,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -2125,7 +2467,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>9.5</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2133,7 +2478,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2141,7 +2489,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B16:B27)</f>
+        <v>99</v>
       </c>
       <c r="C29">
         <f>SUM(C16:C27)</f>
@@ -2150,15 +2502,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4755DE7-4111-491B-AC6A-3C5D32D736A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4755DE7-4111-491B-AC6A-3C5D32D736A9}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2522,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -2177,10 +2530,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2188,7 +2541,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2199,7 +2552,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>2.5</v>
@@ -2208,34 +2561,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <f>SUM(B3:B6)</f>
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f>SUM(C3:C6)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
       <c r="B8">
         <f>B7/C7*C8</f>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2248,7 +2593,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -2256,7 +2604,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2264,7 +2615,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -2272,7 +2626,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2280,7 +2637,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -2288,7 +2648,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -2296,7 +2659,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2304,7 +2670,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -2312,7 +2681,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -2320,7 +2692,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2328,7 +2703,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2336,7 +2714,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B16:B27)</f>
+        <v>70</v>
       </c>
       <c r="C29">
         <f>SUM(C16:C27)</f>
@@ -2345,5 +2727,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grades/Project.xlsx
+++ b/Grades/Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652D2EA-1CF4-4FF1-B786-90C622336193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC23E7B-5965-43A9-BDF2-9B4E531C66F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="270" windowWidth="23745" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="6780" yWindow="45" windowWidth="21735" windowHeight="15330" firstSheet="1" activeTab="5" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2287,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4755DE7-4111-491B-AC6A-3C5D32D736A9}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
